--- a/medicine/Sexualité et sexologie/Françoise_Simpère/Françoise_Simpère.xlsx
+++ b/medicine/Sexualité et sexologie/Françoise_Simpère/Françoise_Simpère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_Simp%C3%A8re</t>
+          <t>Françoise_Simpère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Françoise Simpère, née le 21 janvier 1951[1] est une journaliste française[2] traitant en majorité des sujets scientifiques, sociaux et environnementaux. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Françoise Simpère, née le 21 janvier 1951 est une journaliste française traitant en majorité des sujets scientifiques, sociaux et environnementaux. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_Simp%C3%A8re</t>
+          <t>Françoise_Simpère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2006, elle a été le sujet d’un documentaire intitulé La Grande amoureuse, réalisé par Martine Asselin[3]. Plusieurs fois interviewée à la télévision, elle a expliqué ce qu’elle appelle le « lutinage » et sa vision d’un couple libre mais engagé pour élever à deux ses enfants[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2006, elle a été le sujet d’un documentaire intitulé La Grande amoureuse, réalisé par Martine Asselin. Plusieurs fois interviewée à la télévision, elle a expliqué ce qu’elle appelle le « lutinage » et sa vision d’un couple libre mais engagé pour élever à deux ses enfants.
 Elle a participé à l'écriture d'un documentaire Les vaccins de l'espoir réalisé par Chantal Lasbats (diffusion FR3, 2002) et à l'adaptation pour FR3 de son livre L’Algue fatale sous forme d'une mini-série intitulée Eaux troubles (2004).
 Elle a aussi publié une vingtaine de livres sur des sujets très divers (urbanisme, guérisseurs, écologie, homéopathie, aquaphobie) dont sept romans, et deux essais qui exposent sa vision des amours plurielles : Aimer plusieurs hommes et Guide des amours plurielles.
 Son blog intitulé Jouer au monde  développe les différents sujets qui la passionnent et traitent à la fois des problèmes de société, de politique, d'érotisme, d'écologie, de santé.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_Simp%C3%A8re</t>
+          <t>Françoise_Simpère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le bonheur est un art subtil (avec Daniel Jouvance), éd. Panama  (ISBN 9782755703528)
 Autres désirs, autres hommes, Pocket, 2007  (ISBN 9782266164344)
